--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Postn-Ptk7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Postn-Ptk7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>91.81979866666667</v>
+        <v>99.375541</v>
       </c>
       <c r="H2">
-        <v>275.459396</v>
+        <v>298.126623</v>
       </c>
       <c r="I2">
-        <v>0.02051959845459404</v>
+        <v>0.0220419662695056</v>
       </c>
       <c r="J2">
-        <v>0.02051959845459404</v>
+        <v>0.0220419662695056</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.242491666666667</v>
+        <v>5.097982</v>
       </c>
       <c r="N2">
-        <v>9.727475</v>
+        <v>15.293946</v>
       </c>
       <c r="O2">
-        <v>0.1451908054631944</v>
+        <v>0.1960698660397332</v>
       </c>
       <c r="P2">
-        <v>0.1451908054631944</v>
+        <v>0.1960698660397332</v>
       </c>
       <c r="Q2">
-        <v>297.7249320116778</v>
+        <v>506.614719258262</v>
       </c>
       <c r="R2">
-        <v>2679.5243881051</v>
+        <v>4559.532473324358</v>
       </c>
       <c r="S2">
-        <v>0.002979257027403828</v>
+        <v>0.00432176537371428</v>
       </c>
       <c r="T2">
-        <v>0.002979257027403828</v>
+        <v>0.00432176537371428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>91.81979866666667</v>
+        <v>99.375541</v>
       </c>
       <c r="H3">
-        <v>275.459396</v>
+        <v>298.126623</v>
       </c>
       <c r="I3">
-        <v>0.02051959845459404</v>
+        <v>0.0220419662695056</v>
       </c>
       <c r="J3">
-        <v>0.02051959845459404</v>
+        <v>0.0220419662695056</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>44.887855</v>
       </c>
       <c r="O3">
-        <v>0.669989264733662</v>
+        <v>0.5754666399803534</v>
       </c>
       <c r="P3">
-        <v>0.669989264733662</v>
+        <v>0.5754666399803534</v>
       </c>
       <c r="Q3">
-        <v>1373.864602892842</v>
+        <v>1486.918291651518</v>
       </c>
       <c r="R3">
-        <v>12364.78142603558</v>
+        <v>13382.26462486366</v>
       </c>
       <c r="S3">
-        <v>0.01374791068122345</v>
+        <v>0.01268441626767267</v>
       </c>
       <c r="T3">
-        <v>0.01374791068122345</v>
+        <v>0.01268441626767267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>91.81979866666667</v>
+        <v>99.375541</v>
       </c>
       <c r="H4">
-        <v>275.459396</v>
+        <v>298.126623</v>
       </c>
       <c r="I4">
-        <v>0.02051959845459404</v>
+        <v>0.0220419662695056</v>
       </c>
       <c r="J4">
-        <v>0.02051959845459404</v>
+        <v>0.0220419662695056</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.005849666666666667</v>
+        <v>5.940243666666667</v>
       </c>
       <c r="N4">
-        <v>0.017549</v>
+        <v>17.820731</v>
       </c>
       <c r="O4">
-        <v>0.0002619336924611576</v>
+        <v>0.2284634939799134</v>
       </c>
       <c r="P4">
-        <v>0.0002619336924611576</v>
+        <v>0.2284634939799134</v>
       </c>
       <c r="Q4">
-        <v>0.5371152156004445</v>
+        <v>590.3149280468238</v>
       </c>
       <c r="R4">
-        <v>4.834036940404001</v>
+        <v>5312.834352421413</v>
       </c>
       <c r="S4">
-        <v>5.37477419103208E-06</v>
+        <v>0.005035784628118647</v>
       </c>
       <c r="T4">
-        <v>5.37477419103208E-06</v>
+        <v>0.005035784628118647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>91.81979866666667</v>
+        <v>4345.262939666666</v>
       </c>
       <c r="H5">
-        <v>275.459396</v>
+        <v>13035.788819</v>
       </c>
       <c r="I5">
-        <v>0.02051959845459404</v>
+        <v>0.9637999268679746</v>
       </c>
       <c r="J5">
-        <v>0.02051959845459404</v>
+        <v>0.9637999268679746</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.121664333333332</v>
+        <v>5.097982</v>
       </c>
       <c r="N5">
-        <v>12.364993</v>
+        <v>15.293946</v>
       </c>
       <c r="O5">
-        <v>0.1845579961106824</v>
+        <v>0.1960698660397332</v>
       </c>
       <c r="P5">
-        <v>0.1845579961106824</v>
+        <v>0.1960698660397332</v>
       </c>
       <c r="Q5">
-        <v>378.4503892582475</v>
+        <v>22152.07225168775</v>
       </c>
       <c r="R5">
-        <v>3406.053503324228</v>
+        <v>199368.6502651898</v>
       </c>
       <c r="S5">
-        <v>0.003787055971775732</v>
+        <v>0.1889721225501084</v>
       </c>
       <c r="T5">
-        <v>0.003787055971775732</v>
+        <v>0.1889721225501084</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>13035.788819</v>
       </c>
       <c r="I6">
-        <v>0.9710656306847003</v>
+        <v>0.9637999268679746</v>
       </c>
       <c r="J6">
-        <v>0.9710656306847003</v>
+        <v>0.9637999268679746</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.242491666666667</v>
+        <v>14.96261833333333</v>
       </c>
       <c r="N6">
-        <v>9.727475</v>
+        <v>44.887855</v>
       </c>
       <c r="O6">
-        <v>0.1451908054631944</v>
+        <v>0.5754666399803534</v>
       </c>
       <c r="P6">
-        <v>0.1451908054631944</v>
+        <v>0.5754666399803534</v>
       </c>
       <c r="Q6">
-        <v>14089.47887134467</v>
+        <v>65016.51092421035</v>
       </c>
       <c r="R6">
-        <v>126805.309842102</v>
+        <v>585148.5983178932</v>
       </c>
       <c r="S6">
-        <v>0.1409898010767365</v>
+        <v>0.5546347055280236</v>
       </c>
       <c r="T6">
-        <v>0.1409898010767365</v>
+        <v>0.5546347055280236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>13035.788819</v>
       </c>
       <c r="I7">
-        <v>0.9710656306847003</v>
+        <v>0.9637999268679746</v>
       </c>
       <c r="J7">
-        <v>0.9710656306847003</v>
+        <v>0.9637999268679746</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.96261833333333</v>
+        <v>5.940243666666667</v>
       </c>
       <c r="N7">
-        <v>44.887855</v>
+        <v>17.820731</v>
       </c>
       <c r="O7">
-        <v>0.669989264733662</v>
+        <v>0.2284634939799134</v>
       </c>
       <c r="P7">
-        <v>0.669989264733662</v>
+        <v>0.2284634939799134</v>
       </c>
       <c r="Q7">
-        <v>65016.51092421035</v>
+        <v>25811.9206573563</v>
       </c>
       <c r="R7">
-        <v>585148.5983178932</v>
+        <v>232307.2859162067</v>
       </c>
       <c r="S7">
-        <v>0.6506035479105722</v>
+        <v>0.2201930987898425</v>
       </c>
       <c r="T7">
-        <v>0.6506035479105722</v>
+        <v>0.2201930987898425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4345.262939666666</v>
+        <v>2.295346</v>
       </c>
       <c r="H8">
-        <v>13035.788819</v>
+        <v>6.886038</v>
       </c>
       <c r="I8">
-        <v>0.9710656306847003</v>
+        <v>0.0005091186281828101</v>
       </c>
       <c r="J8">
-        <v>0.9710656306847003</v>
+        <v>0.0005091186281828102</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.005849666666666667</v>
+        <v>5.097982</v>
       </c>
       <c r="N8">
-        <v>0.017549</v>
+        <v>15.293946</v>
       </c>
       <c r="O8">
-        <v>0.0002619336924611576</v>
+        <v>0.1960698660397332</v>
       </c>
       <c r="P8">
-        <v>0.0002619336924611576</v>
+        <v>0.1960698660397332</v>
       </c>
       <c r="Q8">
-        <v>25.41833977607011</v>
+        <v>11.701632591772</v>
       </c>
       <c r="R8">
-        <v>228.765057984631</v>
+        <v>105.314693325948</v>
       </c>
       <c r="S8">
-        <v>0.0002543548062673663</v>
+        <v>9.982282122613628E-05</v>
       </c>
       <c r="T8">
-        <v>0.0002543548062673663</v>
+        <v>9.982282122613631E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4345.262939666666</v>
+        <v>2.295346</v>
       </c>
       <c r="H9">
-        <v>13035.788819</v>
+        <v>6.886038</v>
       </c>
       <c r="I9">
-        <v>0.9710656306847003</v>
+        <v>0.0005091186281828101</v>
       </c>
       <c r="J9">
-        <v>0.9710656306847003</v>
+        <v>0.0005091186281828102</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.121664333333332</v>
+        <v>14.96261833333333</v>
       </c>
       <c r="N9">
-        <v>12.364993</v>
+        <v>44.887855</v>
       </c>
       <c r="O9">
-        <v>0.1845579961106824</v>
+        <v>0.5754666399803534</v>
       </c>
       <c r="P9">
-        <v>0.1845579961106824</v>
+        <v>0.5754666399803534</v>
       </c>
       <c r="Q9">
-        <v>17909.71527737925</v>
+        <v>34.34438614094333</v>
       </c>
       <c r="R9">
-        <v>161187.4374964132</v>
+        <v>309.09947526849</v>
       </c>
       <c r="S9">
-        <v>0.1792179268911243</v>
+        <v>0.0002929807863117685</v>
       </c>
       <c r="T9">
-        <v>0.1792179268911243</v>
+        <v>0.0002929807863117686</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.08385233333333335</v>
+        <v>2.295346</v>
       </c>
       <c r="H10">
-        <v>0.251557</v>
+        <v>6.886038</v>
       </c>
       <c r="I10">
-        <v>1.873905447916655E-05</v>
+        <v>0.0005091186281828101</v>
       </c>
       <c r="J10">
-        <v>1.873905447916655E-05</v>
+        <v>0.0005091186281828102</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.242491666666667</v>
+        <v>5.940243666666667</v>
       </c>
       <c r="N10">
-        <v>9.727475</v>
+        <v>17.820731</v>
       </c>
       <c r="O10">
-        <v>0.1451908054631944</v>
+        <v>0.2284634939799134</v>
       </c>
       <c r="P10">
-        <v>0.1451908054631944</v>
+        <v>0.2284634939799134</v>
       </c>
       <c r="Q10">
-        <v>0.2718904920638889</v>
+        <v>13.63491453930867</v>
       </c>
       <c r="R10">
-        <v>2.447014428575</v>
+        <v>122.714230853778</v>
       </c>
       <c r="S10">
-        <v>2.720738413448873E-06</v>
+        <v>0.0001163150206449052</v>
       </c>
       <c r="T10">
-        <v>2.720738413448872E-06</v>
+        <v>0.0001163150206449052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.08385233333333335</v>
+        <v>58.99338900000001</v>
       </c>
       <c r="H11">
-        <v>0.251557</v>
+        <v>176.980167</v>
       </c>
       <c r="I11">
-        <v>1.873905447916655E-05</v>
+        <v>0.01308501344875016</v>
       </c>
       <c r="J11">
-        <v>1.873905447916655E-05</v>
+        <v>0.01308501344875016</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.96261833333333</v>
+        <v>5.097982</v>
       </c>
       <c r="N11">
-        <v>44.887855</v>
+        <v>15.293946</v>
       </c>
       <c r="O11">
-        <v>0.669989264733662</v>
+        <v>0.1960698660397332</v>
       </c>
       <c r="P11">
-        <v>0.669989264733662</v>
+        <v>0.1960698660397332</v>
       </c>
       <c r="Q11">
-        <v>1.254650460026111</v>
+        <v>300.7472352409981</v>
       </c>
       <c r="R11">
-        <v>11.291854140235</v>
+        <v>2706.725117168982</v>
       </c>
       <c r="S11">
-        <v>1.255496533230084E-05</v>
+        <v>0.002565576834024551</v>
       </c>
       <c r="T11">
-        <v>1.255496533230083E-05</v>
+        <v>0.002565576834024551</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.08385233333333335</v>
+        <v>58.99338900000001</v>
       </c>
       <c r="H12">
-        <v>0.251557</v>
+        <v>176.980167</v>
       </c>
       <c r="I12">
-        <v>1.873905447916655E-05</v>
+        <v>0.01308501344875016</v>
       </c>
       <c r="J12">
-        <v>1.873905447916655E-05</v>
+        <v>0.01308501344875016</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.005849666666666667</v>
+        <v>14.96261833333333</v>
       </c>
       <c r="N12">
-        <v>0.017549</v>
+        <v>44.887855</v>
       </c>
       <c r="O12">
-        <v>0.0002619336924611576</v>
+        <v>0.5754666399803534</v>
       </c>
       <c r="P12">
-        <v>0.0002619336924611576</v>
+        <v>0.5754666399803534</v>
       </c>
       <c r="Q12">
-        <v>0.0004905081992222223</v>
+        <v>882.6955637968651</v>
       </c>
       <c r="R12">
-        <v>0.004414573793000001</v>
+        <v>7944.260074171786</v>
       </c>
       <c r="S12">
-        <v>4.90838973295889E-09</v>
+        <v>0.00752998872344999</v>
       </c>
       <c r="T12">
-        <v>4.908389732958889E-09</v>
+        <v>0.00752998872344999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,22 +1216,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.08385233333333335</v>
+        <v>58.99338900000001</v>
       </c>
       <c r="H13">
-        <v>0.251557</v>
+        <v>176.980167</v>
       </c>
       <c r="I13">
-        <v>1.873905447916655E-05</v>
+        <v>0.01308501344875016</v>
       </c>
       <c r="J13">
-        <v>1.873905447916655E-05</v>
+        <v>0.01308501344875016</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.121664333333332</v>
+        <v>5.940243666666667</v>
       </c>
       <c r="N13">
-        <v>12.364993</v>
+        <v>17.820731</v>
       </c>
       <c r="O13">
-        <v>0.1845579961106824</v>
+        <v>0.2284634939799134</v>
       </c>
       <c r="P13">
-        <v>0.1845579961106824</v>
+        <v>0.2284634939799134</v>
       </c>
       <c r="Q13">
-        <v>0.3456111715667778</v>
+        <v>350.4351053824531</v>
       </c>
       <c r="R13">
-        <v>3.110500544101</v>
+        <v>3153.915948442078</v>
       </c>
       <c r="S13">
-        <v>3.458442343683887E-06</v>
+        <v>0.002989447891275618</v>
       </c>
       <c r="T13">
-        <v>3.458442343683886E-06</v>
+        <v>0.002989447891275618</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.20226366666667</v>
+        <v>2.542663333333333</v>
       </c>
       <c r="H14">
-        <v>111.606791</v>
+        <v>7.62799</v>
       </c>
       <c r="I14">
-        <v>0.008313844324721455</v>
+        <v>0.0005639747855867473</v>
       </c>
       <c r="J14">
-        <v>0.008313844324721454</v>
+        <v>0.0005639747855867473</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.242491666666667</v>
+        <v>5.097982</v>
       </c>
       <c r="N14">
-        <v>9.727475</v>
+        <v>15.293946</v>
       </c>
       <c r="O14">
-        <v>0.1451908054631944</v>
+        <v>0.1960698660397332</v>
       </c>
       <c r="P14">
-        <v>0.1451908054631944</v>
+        <v>0.1960698660397332</v>
       </c>
       <c r="Q14">
-        <v>120.6280299203028</v>
+        <v>12.96245190539333</v>
       </c>
       <c r="R14">
-        <v>1085.652269282725</v>
+        <v>116.66206714854</v>
       </c>
       <c r="S14">
-        <v>0.001207093754001916</v>
+        <v>0.0001105784606597808</v>
       </c>
       <c r="T14">
-        <v>0.001207093754001915</v>
+        <v>0.0001105784606597808</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.20226366666667</v>
+        <v>2.542663333333333</v>
       </c>
       <c r="H15">
-        <v>111.606791</v>
+        <v>7.62799</v>
       </c>
       <c r="I15">
-        <v>0.008313844324721455</v>
+        <v>0.0005639747855867473</v>
       </c>
       <c r="J15">
-        <v>0.008313844324721454</v>
+        <v>0.0005639747855867473</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>44.887855</v>
       </c>
       <c r="O15">
-        <v>0.669989264733662</v>
+        <v>0.5754666399803534</v>
       </c>
       <c r="P15">
-        <v>0.669989264733662</v>
+        <v>0.5754666399803534</v>
       </c>
       <c r="Q15">
-        <v>556.6432723803672</v>
+        <v>38.04490100682778</v>
       </c>
       <c r="R15">
-        <v>5009.789451423305</v>
+        <v>342.40410906145</v>
       </c>
       <c r="S15">
-        <v>0.005570186446230257</v>
+        <v>0.0003245486748952457</v>
       </c>
       <c r="T15">
-        <v>0.005570186446230255</v>
+        <v>0.0003245486748952457</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,356 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.20226366666667</v>
+        <v>2.542663333333333</v>
       </c>
       <c r="H16">
-        <v>111.606791</v>
+        <v>7.62799</v>
       </c>
       <c r="I16">
-        <v>0.008313844324721455</v>
+        <v>0.0005639747855867473</v>
       </c>
       <c r="J16">
-        <v>0.008313844324721454</v>
+        <v>0.0005639747855867473</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.005849666666666667</v>
+        <v>5.940243666666667</v>
       </c>
       <c r="N16">
-        <v>0.017549</v>
+        <v>17.820731</v>
       </c>
       <c r="O16">
-        <v>0.0002619336924611576</v>
+        <v>0.2284634939799134</v>
       </c>
       <c r="P16">
-        <v>0.0002619336924611576</v>
+        <v>0.2284634939799134</v>
       </c>
       <c r="Q16">
-        <v>0.2176208416954445</v>
+        <v>15.10403976229889</v>
       </c>
       <c r="R16">
-        <v>1.958587575259</v>
+        <v>135.93635786069</v>
       </c>
       <c r="S16">
-        <v>2.17767594252153E-06</v>
+        <v>0.0001288476500317208</v>
       </c>
       <c r="T16">
-        <v>2.17767594252153E-06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>37.20226366666667</v>
-      </c>
-      <c r="H17">
-        <v>111.606791</v>
-      </c>
-      <c r="I17">
-        <v>0.008313844324721455</v>
-      </c>
-      <c r="J17">
-        <v>0.008313844324721454</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>4.121664333333332</v>
-      </c>
-      <c r="N17">
-        <v>12.364993</v>
-      </c>
-      <c r="O17">
-        <v>0.1845579961106824</v>
-      </c>
-      <c r="P17">
-        <v>0.1845579961106824</v>
-      </c>
-      <c r="Q17">
-        <v>153.3352432741625</v>
-      </c>
-      <c r="R17">
-        <v>1380.017189467463</v>
-      </c>
-      <c r="S17">
-        <v>0.001534386448546761</v>
-      </c>
-      <c r="T17">
-        <v>0.001534386448546761</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.3677673333333333</v>
-      </c>
-      <c r="H18">
-        <v>1.103302</v>
-      </c>
-      <c r="I18">
-        <v>8.218748150508002E-05</v>
-      </c>
-      <c r="J18">
-        <v>8.218748150508001E-05</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>3.242491666666667</v>
-      </c>
-      <c r="N18">
-        <v>9.727475</v>
-      </c>
-      <c r="O18">
-        <v>0.1451908054631944</v>
-      </c>
-      <c r="P18">
-        <v>0.1451908054631944</v>
-      </c>
-      <c r="Q18">
-        <v>1.192482513605555</v>
-      </c>
-      <c r="R18">
-        <v>10.73234262245</v>
-      </c>
-      <c r="S18">
-        <v>1.193286663871396E-05</v>
-      </c>
-      <c r="T18">
-        <v>1.193286663871396E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.3677673333333333</v>
-      </c>
-      <c r="H19">
-        <v>1.103302</v>
-      </c>
-      <c r="I19">
-        <v>8.218748150508002E-05</v>
-      </c>
-      <c r="J19">
-        <v>8.218748150508001E-05</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>14.96261833333333</v>
-      </c>
-      <c r="N19">
-        <v>44.887855</v>
-      </c>
-      <c r="O19">
-        <v>0.669989264733662</v>
-      </c>
-      <c r="P19">
-        <v>0.669989264733662</v>
-      </c>
-      <c r="Q19">
-        <v>5.502762244134445</v>
-      </c>
-      <c r="R19">
-        <v>49.52486019721</v>
-      </c>
-      <c r="S19">
-        <v>5.506473030390001E-05</v>
-      </c>
-      <c r="T19">
-        <v>5.50647303039E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.3677673333333333</v>
-      </c>
-      <c r="H20">
-        <v>1.103302</v>
-      </c>
-      <c r="I20">
-        <v>8.218748150508002E-05</v>
-      </c>
-      <c r="J20">
-        <v>8.218748150508001E-05</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.005849666666666667</v>
-      </c>
-      <c r="N20">
-        <v>0.017549</v>
-      </c>
-      <c r="O20">
-        <v>0.0002619336924611576</v>
-      </c>
-      <c r="P20">
-        <v>0.0002619336924611576</v>
-      </c>
-      <c r="Q20">
-        <v>0.002151316310888889</v>
-      </c>
-      <c r="R20">
-        <v>0.019361846798</v>
-      </c>
-      <c r="S20">
-        <v>2.152767050470871E-08</v>
-      </c>
-      <c r="T20">
-        <v>2.15276705047087E-08</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.3677673333333333</v>
-      </c>
-      <c r="H21">
-        <v>1.103302</v>
-      </c>
-      <c r="I21">
-        <v>8.218748150508002E-05</v>
-      </c>
-      <c r="J21">
-        <v>8.218748150508001E-05</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>4.121664333333332</v>
-      </c>
-      <c r="N21">
-        <v>12.364993</v>
-      </c>
-      <c r="O21">
-        <v>0.1845579961106824</v>
-      </c>
-      <c r="P21">
-        <v>0.1845579961106824</v>
-      </c>
-      <c r="Q21">
-        <v>1.515813500765111</v>
-      </c>
-      <c r="R21">
-        <v>13.642321506886</v>
-      </c>
-      <c r="S21">
-        <v>1.516835689196134E-05</v>
-      </c>
-      <c r="T21">
-        <v>1.516835689196134E-05</v>
+        <v>0.0001288476500317208</v>
       </c>
     </row>
   </sheetData>
